--- a/3DGame202509/その他作業/コスト表.xlsx
+++ b/3DGame202509/その他作業/コスト表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\藤原 冬志\Desktop\GitHub\3DGame202509\3DGame202509\その他作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5929321C-4AA3-4B59-86A6-AA9E5F45CA47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3792A078-1C41-4AE3-94C8-B14CE89F6B4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1095,7 +1095,7 @@
       </c>
       <c r="C3">
         <f>SUMIF(コスト表!F3:F85,"完了",コスト表!E3:E85)</f>
-        <v>8.5</v>
+        <v>15.5</v>
       </c>
       <c r="D3" t="s">
         <v>76</v>
@@ -1107,11 +1107,11 @@
       </c>
       <c r="C4" s="15">
         <f ca="1">NETWORKDAYS(C5,C6)</f>
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D4" s="16">
         <f ca="1" xml:space="preserve"> C3 / C4</f>
-        <v>0.44736842105263158</v>
+        <v>0.67391304347826086</v>
       </c>
     </row>
     <row r="5" spans="2:5">
@@ -1129,7 +1129,7 @@
       </c>
       <c r="C6" s="1">
         <f ca="1">TODAY()</f>
-        <v>45827</v>
+        <v>45833</v>
       </c>
     </row>
     <row r="8" spans="2:5">
@@ -1150,11 +1150,11 @@
       </c>
       <c r="D9" s="15">
         <f ca="1">NETWORKDAYS(TODAY(),C9)</f>
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E9" s="16">
         <f ca="1">($C$2 - $C$3) / D9</f>
-        <v>2.0699999999999998</v>
+        <v>2.1309523809523809</v>
       </c>
     </row>
     <row r="10" spans="2:5">
@@ -1167,11 +1167,11 @@
       </c>
       <c r="D10" s="15">
         <f ca="1">NETWORKDAYS(TODAY(),C10)</f>
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E10" s="16">
         <f ca="1">($C$2 - $C$3) / D10</f>
-        <v>1.6171875</v>
+        <v>1.5982142857142858</v>
       </c>
     </row>
     <row r="11" spans="2:5">
@@ -1184,11 +1184,11 @@
       </c>
       <c r="D11" s="15">
         <f ca="1">NETWORKDAYS(TODAY(),C11)</f>
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E11" s="16">
         <f ca="1">($C$2 - $C$3) / D11</f>
-        <v>1.1010638297872339</v>
+        <v>1.0406976744186047</v>
       </c>
     </row>
     <row r="13" spans="2:5">
@@ -1251,8 +1251,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28EBD717-8DEC-4580-ACAD-6661EE4FBE57}">
   <dimension ref="B2:F65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1294,7 +1294,7 @@
         <v>2</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>5</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4" spans="2:6">
@@ -1311,7 +1311,7 @@
         <v>4</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>5</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="2:6">
@@ -1448,7 +1448,7 @@
         <v>0.5</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="14" spans="2:6">
@@ -1465,7 +1465,7 @@
         <v>2</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>5</v>
+        <v>71</v>
       </c>
     </row>
     <row r="15" spans="2:6">
@@ -1627,7 +1627,7 @@
         <v>0.25</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="25" spans="2:6">
@@ -1721,7 +1721,7 @@
         <v>0.25</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>5</v>
+        <v>71</v>
       </c>
     </row>
     <row r="31" spans="2:6">
@@ -1764,7 +1764,7 @@
         <v>1</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="34" spans="2:6">
@@ -1781,7 +1781,7 @@
         <v>1</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="35" spans="2:6">

--- a/3DGame202509/その他作業/コスト表.xlsx
+++ b/3DGame202509/その他作業/コスト表.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\藤原 冬志\Desktop\GitHub\3DGame202509\3DGame202509\その他作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3792A078-1C41-4AE3-94C8-B14CE89F6B4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53D79C83-FC41-4A8B-A97E-D01D08DFB750}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3855" yWindow="2805" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="概要" sheetId="3" r:id="rId1"/>
     <sheet name="コスト表" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">コスト表!$C$2:$F$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">コスト表!$C$2:$F$65</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1070,7 +1070,7 @@
   <dimension ref="B2:E23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1251,8 +1251,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28EBD717-8DEC-4580-ACAD-6661EE4FBE57}">
   <dimension ref="B2:F65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="K43" sqref="K43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1382,7 +1382,7 @@
         <v>2</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="E9" s="7">
         <v>1</v>
@@ -1878,7 +1878,7 @@
         <v>3</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E41" s="7">
         <v>2</v>
@@ -1895,7 +1895,7 @@
         <v>3</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E42" s="7">
         <v>2</v>
@@ -1912,7 +1912,7 @@
         <v>3</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E43" s="7">
         <v>2</v>
@@ -2264,7 +2264,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="C2:F2" xr:uid="{28EBD717-8DEC-4580-ACAD-6661EE4FBE57}"/>
+  <autoFilter ref="C2:F65" xr:uid="{28EBD717-8DEC-4580-ACAD-6661EE4FBE57}"/>
   <phoneticPr fontId="1"/>
   <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D65" xr:uid="{8EDF565C-59EA-42F4-A6D5-C8CB056BBD4D}">
